--- a/HW/HW2/report/fig/wes.xlsx
+++ b/HW/HW2/report/fig/wes.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmed\OneDrive - UC Davis\Courses\Winter 2017\EEC277\HW\HW2\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmed\Documents\GitHub\EEC277\HW\HW2\report\fig\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="799" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="799" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="TriArea" sheetId="1" r:id="rId1"/>
@@ -863,7 +863,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="0"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -12618,7 +12618,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -12654,7 +12654,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -12699,7 +12699,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8665882" cy="6293971"/>
+    <xdr:ext cx="8667750" cy="6296025"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -12732,7 +12732,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8660423" cy="6286500"/>
+    <xdr:ext cx="8667750" cy="6296025"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -12765,7 +12765,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8663609" cy="6286500"/>
+    <xdr:ext cx="8673353" cy="6297706"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">

--- a/HW/HW2/report/fig/wes.xlsx
+++ b/HW/HW2/report/fig/wes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="799" firstSheet="1" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="799" firstSheet="15" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="TriArea" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,11 @@
     <sheet name="TriAreaTStrip" sheetId="12" r:id="rId13"/>
     <sheet name="TriAreaIDTStrip" sheetId="16" r:id="rId14"/>
     <sheet name="TriAreaTStrip_IDTSrip Fig" sheetId="17" r:id="rId15"/>
-    <sheet name="textTest128" sheetId="18" r:id="rId16"/>
-    <sheet name="textTest16384" sheetId="19" r:id="rId17"/>
-    <sheet name="textTest Fig" sheetId="22" r:id="rId18"/>
-    <sheet name="bucketSize" sheetId="23" r:id="rId19"/>
+    <sheet name="textTest 2^7" sheetId="18" r:id="rId16"/>
+    <sheet name="textTest 2^14" sheetId="19" r:id="rId17"/>
+    <sheet name="textTest 2^7 Fig" sheetId="22" r:id="rId18"/>
+    <sheet name="textTest 2^14 Fig" sheetId="25" r:id="rId19"/>
+    <sheet name="bucketSize" sheetId="23" r:id="rId20"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -1120,6 +1121,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="819677792"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -2786,6 +2788,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="594780312"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -4315,6 +4318,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="819440792"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -5404,6 +5408,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="819442432"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -6819,6 +6824,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="819230472"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -9652,6 +9658,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="816102048"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -9759,10 +9766,1223 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12497813739494261"/>
-          <c:y val="0.11301422704831533"/>
-          <c:w val="0.7264922591658719"/>
-          <c:h val="0.75339030763165415"/>
+          <c:x val="8.3925504479250929E-2"/>
+          <c:y val="5.8525224721449012E-2"/>
+          <c:w val="0.83352233783892515"/>
+          <c:h val="0.84016908911518207"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>MVerts/Sec - area =2^7 p</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'textTest 2^7'!$B$13:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'textTest 2^7'!$C$13:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>30.104369999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.255269999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.231180000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.721730000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.7178</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.740659999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.161909999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.3167600000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.4195799999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.1390099999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EEC6-460B-917F-E0C0A4CD0DA2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>MTris/Sec - area =2^7 p</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'textTest 2^7'!$B$13:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'textTest 2^7'!$E$13:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10.034790000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.7517600000000009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.41039</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.2405799999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.9059299999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.2468899999999987</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.3872999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1055900000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.47319</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3796700000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-EEC6-460B-917F-E0C0A4CD0DA2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="547723200"/>
+        <c:axId val="774397528"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:v>MVerts/Sec - area =2^14 p</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="25400">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'textTest 2^14'!$B$13:$B$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>128</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>256</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>512</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1024</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2048</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>4096</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'textTest 2^14'!$C$13:$C$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>444.7</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>436.77</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>356.96</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>273.18</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>240.67</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>214.59</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>115</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>47.89</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>35.880000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>26.65</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-EEC6-460B-917F-E0C0A4CD0DA2}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:v>MTris/Sec - area =2^14 p</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                    <a:ln w="25400">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'textTest 2^14'!$B$13:$B$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>128</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>256</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>512</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1024</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2048</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>4096</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'textTest 2^14'!$E$13:$E$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>148.22999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>145.59</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>118.99</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>91.06</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>80.22</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>71.53</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>38.33</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>15.96</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>11.96</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>8.8800000000000008</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-EEC6-460B-917F-E0C0A4CD0DA2}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>MFrags/Sec - area =2^7 p</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'textTest 2^7'!$B$13:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'textTest 2^7'!$D$13:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1284.45325</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1248.22488</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1332.5303799999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1182.79375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1139.9593799999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1055.6015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>817.57474999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>397.51515999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>188.56892000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>176.59767000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-EEC6-460B-917F-E0C0A4CD0DA2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="826291856"/>
+        <c:axId val="826299072"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:v>MFrags/Sec - area =2^14 p</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="25400">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'textTest 2^14'!$B$13:$B$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>128</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>256</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>512</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1024</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2048</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>4096</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'textTest 2^14'!$D$13:$D$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>2428682</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2385346.5</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1949477.63</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1491953.25</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1314390</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1171947.5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>628053.38</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>261541.78</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>195952.64000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>145551.35999999999</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-EEC6-460B-917F-E0C0A4CD0DA2}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="547723200"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="7"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Texture</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> Size</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="2400">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.41601925456222782"/>
+              <c:y val="0.92476831050563535"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="774397528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="774397528"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Rate</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>(*10^3)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="547723200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="826299072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="826291856"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="826291856"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="826299072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.58011895796965407"/>
+          <c:y val="7.6044813509840187E-2"/>
+          <c:w val="0.35390636697936784"/>
+          <c:h val="0.26339147877177432"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200" b="1"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.125633178562445E-2"/>
+          <c:y val="7.0633891905197088E-2"/>
+          <c:w val="0.7968682013070576"/>
+          <c:h val="0.79577064277477261"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -9800,7 +11020,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>textTest16384!$B$13:$B$22</c:f>
+              <c:f>'textTest 2^14'!$B$13:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -9839,7 +11059,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>textTest16384!$C$13:$C$22</c:f>
+              <c:f>'textTest 2^14'!$C$13:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -9879,7 +11099,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EEC6-460B-917F-E0C0A4CD0DA2}"/>
+              <c16:uniqueId val="{00000000-2090-4803-82D6-3F8E124C58F1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9915,7 +11135,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>textTest16384!$B$13:$B$22</c:f>
+              <c:f>'textTest 2^14'!$B$13:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -9954,7 +11174,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>textTest16384!$E$13:$E$22</c:f>
+              <c:f>'textTest 2^14'!$E$13:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -9994,239 +11214,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-EEC6-460B-917F-E0C0A4CD0DA2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>MVerts/Sec - area =2^7 p</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:prstDash val="sysDash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>textTest128!$B$13:$B$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4096</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>textTest128!$C$13:$C$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>30.104369999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>29.255269999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>31.231180000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>27.721730000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>26.7178</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>24.740659999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>19.161909999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.3167600000000004</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.4195799999999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.1390099999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-EEC6-460B-917F-E0C0A4CD0DA2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:v>MTris/Sec - area =2^7 p</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:prstDash val="sysDash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>textTest128!$B$13:$B$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4096</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>textTest128!$E$13:$E$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>10.034790000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.7517600000000009</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.41039</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.2405799999999996</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.9059299999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.2468899999999987</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.3872999999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.1055900000000003</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.47319</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.3796700000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-EEC6-460B-917F-E0C0A4CD0DA2}"/>
+              <c16:uniqueId val="{00000001-2090-4803-82D6-3F8E124C58F1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10240,6 +11228,270 @@
         </c:dLbls>
         <c:axId val="547723200"/>
         <c:axId val="774397528"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:v>MVerts/Sec - area =2^7 p</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:prstDash val="sysDash"/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="25400">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'textTest 2^7'!$B$13:$B$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>128</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>256</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>512</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1024</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2048</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>4096</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'textTest 2^7'!$C$13:$C$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>30.104369999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>29.255269999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>31.231180000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>27.721730000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>26.7178</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>24.740659999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>19.161909999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>9.3167600000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>4.4195799999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>4.1390099999999999</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-2090-4803-82D6-3F8E124C58F1}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:v>MTris/Sec - area =2^7 p</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                    <a:prstDash val="sysDash"/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                    <a:ln w="25400">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'textTest 2^7'!$B$13:$B$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>128</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>256</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>512</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1024</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2048</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>4096</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'textTest 2^7'!$E$13:$E$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>10.034790000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>9.7517600000000009</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>10.41039</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>9.2405799999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>8.9059299999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>8.2468899999999987</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6.3872999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>3.1055900000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.47319</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.3796700000000002</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-2090-4803-82D6-3F8E124C58F1}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -10276,7 +11528,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>textTest16384!$B$13:$B$22</c:f>
+              <c:f>'textTest 2^14'!$B$13:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -10315,7 +11567,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>textTest16384!$D$13:$D$22</c:f>
+              <c:f>'textTest 2^14'!$D$13:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -10355,123 +11607,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EEC6-460B-917F-E0C0A4CD0DA2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>MFrags/Sec - area =2^7 p</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:prstDash val="sysDash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>textTest128!$B$13:$B$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4096</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>textTest128!$D$13:$D$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1284.45325</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1248.22488</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1332.5303799999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1182.79375</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1139.9593799999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1055.6015</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>817.57474999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>397.51515999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>188.56892000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>176.59767000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-EEC6-460B-917F-E0C0A4CD0DA2}"/>
+              <c16:uniqueId val="{00000002-2090-4803-82D6-3F8E124C58F1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10485,6 +11621,140 @@
         </c:dLbls>
         <c:axId val="826291856"/>
         <c:axId val="826299072"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:v>MFrags/Sec - area =2^7 p</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:prstDash val="sysDash"/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="25400">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'textTest 2^7'!$B$13:$B$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>128</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>256</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>512</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1024</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2048</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>4096</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'textTest 2^7'!$D$13:$D$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>1284.45325</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1248.22488</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1332.5303799999999</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1182.79375</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1139.9593799999998</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1055.6015</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>817.57474999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>397.51515999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>188.56892000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>176.59767000000002</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-2090-4803-82D6-3F8E124C58F1}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="547723200"/>
@@ -10526,7 +11796,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1800">
+                  <a:rPr lang="en-US" sz="2400">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -10536,7 +11806,7 @@
                   <a:t>Texture</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1800" baseline="0">
+                  <a:rPr lang="en-US" sz="2400" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -10545,7 +11815,7 @@
                   </a:rPr>
                   <a:t> Size</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="1800">
+                <a:endParaRPr lang="en-US" sz="2400">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
@@ -10555,6 +11825,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.42812608699717886"/>
+              <c:y val="0.9066053097300133"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10812,6 +12090,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="826299072"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -10828,9 +12107,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.53320166320886353"/>
-          <c:y val="7.6044813509840187E-2"/>
-          <c:w val="0.33924471236662079"/>
+          <c:x val="0.55079564874415998"/>
+          <c:y val="6.1918035128800772E-2"/>
+          <c:w val="0.34657553967299431"/>
           <c:h val="0.27751825715281375"/>
         </c:manualLayout>
       </c:layout>
@@ -10847,7 +12126,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -11212,6 +12491,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -14825,6 +16144,522 @@
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -15404,7 +17239,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -15428,10 +17263,23 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
+    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
     <sheetView zoomScale="102" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -15604,7 +17452,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8663609" cy="6286500"/>
+    <xdr:ext cx="8667750" cy="6296025"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -15677,6 +17525,39 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{958068B0-AF24-4775-BB7C-B9A4E92D6158}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8662051" cy="6293013"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F61E12DF-EACE-40F1-B4D4-2D2A015DCCBD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16815,7 +18696,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/HW/HW2/report/fig/wes.xlsx
+++ b/HW/HW2/report/fig/wes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="799" firstSheet="15" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="799" firstSheet="16" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="TriArea" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <sheet name="textTest 2^7 Fig" sheetId="22" r:id="rId18"/>
     <sheet name="textTest 2^14 Fig" sheetId="25" r:id="rId19"/>
     <sheet name="bucketSize" sheetId="23" r:id="rId20"/>
+    <sheet name="bucketSize Fig" sheetId="26" r:id="rId21"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -1198,6 +1199,1029 @@
           <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
         </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10738415185964618"/>
+          <c:y val="7.0633891905197088E-2"/>
+          <c:w val="0.84085316514529873"/>
+          <c:h val="0.79577064277477261"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>MVerts/Sec</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>bucketSize!$E$13:$E$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1023</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8190</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16383</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32766</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>65535</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>131070</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>262143</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>524286</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1048575</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2097150</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4194303</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6291456</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>bucketSize!$B$13:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7579.78</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15039.32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34813.339999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38349.32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42668.78</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40934.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32364.19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29440.06</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27922.58</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28027.34</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28049.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>124735.34</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130149.83</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>131837.28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>128540.35</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>127767.03999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>115709.92</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>122368.35</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>106954.66</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>88919.16</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>88919.23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>89338.68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6E23-4943-8BE7-DE9AF356214F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>MTris/Sec</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>bucketSize!$E$13:$E$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1023</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8190</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16383</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32766</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>65535</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>131070</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>262143</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>524286</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1048575</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2097150</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4194303</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6291456</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>bucketSize!$D$13:$D$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2526.59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5013.1099999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11604.45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12783.11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14222.93</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13644.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10788.06</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9813.35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9307.5300000000007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9342.4500000000007</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9349.7000000000007</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41578.449999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43383.28</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43945.760000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42846.79</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42589.01</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>38569.97</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40789.449999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>35651.550000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>29639.72</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>29639.74</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29779.56</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6E23-4943-8BE7-DE9AF356214F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="547723200"/>
+        <c:axId val="774397528"/>
+        <c:extLst/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="826291856"/>
+        <c:axId val="826299072"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:v>MFrags/Sec - area =2^7 p</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="25400">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>bucketSize!$E$13:$E$35</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="23"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>63</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>126</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>510</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1023</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2046</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>4095</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>8190</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>16383</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>32766</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>65535</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>131070</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>262143</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>524286</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>1048575</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>2097150</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>4194303</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>6291456</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>bucketSize!$C$13:$C$35</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="23"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>323404.09000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>641677.63</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1485369</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1636237.88</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1820534.63</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1746521.63</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1380872.25</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1256109.1299999999</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1191363.5</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1195833</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1196762.1299999999</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>5197.3100000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>5422.91</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>5493.22</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>5355.85</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>5323.63</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>4821.25</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>5098.68</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>4456.4399999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>3704.97</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>3704.97</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>3722.44</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-6E23-4943-8BE7-DE9AF356214F}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="547723200"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Buffer Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.42812608699717886"/>
+              <c:y val="0.9066053097300133"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="774397528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="774397528"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="300000"/>
+          <c:min val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Rate</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>(*10^3)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="547723200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="826299072"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="826291856"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="826291856"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="826299072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.61823925996279638"/>
+          <c:y val="0.4292142730358256"/>
+          <c:w val="0.26007177745778687"/>
+          <c:h val="0.27751825715281375"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200" b="1"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -10181,7 +11205,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'textTest 2^14'!$B$13:$B$22</c15:sqref>
@@ -10226,7 +11250,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'textTest 2^14'!$E$13:$E$22</c15:sqref>
@@ -10270,7 +11294,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-EEC6-460B-917F-E0C0A4CD0DA2}"/>
                   </c:ext>
@@ -12211,6 +13235,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -13047,7 +14111,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13563,7 +14627,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -14079,7 +15143,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -14595,7 +15659,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -15111,7 +16175,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -15627,7 +16691,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -16143,7 +17207,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -16659,7 +17723,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -17175,11 +18239,539 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -17263,7 +18855,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -17275,7 +18867,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="102" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -17316,11 +18908,44 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8662051" cy="6293013"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99AC8216-365C-4CBD-AA34-6D14D356048C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8667750" cy="6296025"/>
+    <xdr:ext cx="8663609" cy="6286500"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -17518,7 +19143,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662051" cy="6293013"/>
+    <xdr:ext cx="8660230" cy="6291513"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -19211,10 +20836,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection sqref="A1:F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19222,511 +20847,954 @@
     <col min="1" max="6" width="13.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>128</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="4">
         <v>-10241024</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>1073741824</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>1073741824</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="F7"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>128</v>
       </c>
-      <c r="B13" s="1">
-        <v>43447.3</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1853751.25</v>
-      </c>
-      <c r="D13" s="1">
-        <v>14482.43</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <f>B13/1000</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" ref="H13:I28" si="0">C13/1000</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>128</v>
+      </c>
+      <c r="B14">
+        <v>7579.78</v>
+      </c>
+      <c r="C14">
+        <v>323404.09000000003</v>
+      </c>
+      <c r="D14">
+        <v>2526.59</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" ref="G14:G30" si="1">B14/1000</f>
+        <v>7.5797799999999995</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="0"/>
+        <v>323.40409000000005</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5265900000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>128</v>
+      </c>
+      <c r="B15">
+        <v>15039.32</v>
+      </c>
+      <c r="C15">
+        <v>641677.63</v>
+      </c>
+      <c r="D15">
+        <v>5013.1099999999997</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="1"/>
+        <v>15.03932</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="0"/>
+        <v>641.67763000000002</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="0"/>
+        <v>5.0131099999999993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>128</v>
+      </c>
+      <c r="B16">
+        <v>34813.339999999997</v>
+      </c>
+      <c r="C16">
+        <v>1485369</v>
+      </c>
+      <c r="D16">
+        <v>11604.45</v>
+      </c>
+      <c r="E16">
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="1"/>
+        <v>34.813339999999997</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="0"/>
+        <v>1485.3689999999999</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="0"/>
+        <v>11.60445</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>128</v>
+      </c>
+      <c r="B17">
+        <v>38349.32</v>
+      </c>
+      <c r="C17">
+        <v>1636237.88</v>
+      </c>
+      <c r="D17">
+        <v>12783.11</v>
+      </c>
+      <c r="E17">
+        <v>30</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="1"/>
+        <v>38.349319999999999</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="0"/>
+        <v>1636.2378799999999</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="0"/>
+        <v>12.783110000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>128</v>
+      </c>
+      <c r="B18">
+        <v>42668.78</v>
+      </c>
+      <c r="C18">
+        <v>1820534.63</v>
+      </c>
+      <c r="D18">
+        <v>14222.93</v>
+      </c>
+      <c r="E18">
         <v>63</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="G18" s="1">
+        <f t="shared" si="1"/>
+        <v>42.668779999999998</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="0"/>
+        <v>1820.5346299999999</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="0"/>
+        <v>14.22293</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>128</v>
       </c>
-      <c r="B14" s="1">
-        <v>42699.22</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1821833.38</v>
-      </c>
-      <c r="D14" s="1">
-        <v>14233.07</v>
-      </c>
-      <c r="E14" s="1">
-        <v>63</v>
-      </c>
-      <c r="F14" s="1">
+      <c r="B19">
+        <v>40934.1</v>
+      </c>
+      <c r="C19">
+        <v>1746521.63</v>
+      </c>
+      <c r="D19">
+        <v>13644.7</v>
+      </c>
+      <c r="E19">
+        <v>126</v>
+      </c>
+      <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="G19" s="1">
+        <f t="shared" si="1"/>
+        <v>40.934100000000001</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="0"/>
+        <v>1746.52163</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="0"/>
+        <v>13.6447</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>128</v>
       </c>
-      <c r="B15" s="1">
-        <v>42761.63</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1824496.13</v>
-      </c>
-      <c r="D15" s="1">
-        <v>14253.88</v>
-      </c>
-      <c r="E15" s="1">
-        <v>63</v>
-      </c>
-      <c r="F15" s="1">
+      <c r="B20">
+        <v>32364.19</v>
+      </c>
+      <c r="C20">
+        <v>1380872.25</v>
+      </c>
+      <c r="D20">
+        <v>10788.06</v>
+      </c>
+      <c r="E20">
+        <v>255</v>
+      </c>
+      <c r="F20">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="G20" s="1">
+        <f t="shared" si="1"/>
+        <v>32.364190000000001</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="0"/>
+        <v>1380.8722499999999</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="0"/>
+        <v>10.78806</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>128</v>
       </c>
-      <c r="B16" s="1">
-        <v>42717.4</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1822609.25</v>
-      </c>
-      <c r="D16" s="1">
-        <v>14239.13</v>
-      </c>
-      <c r="E16" s="1">
-        <v>63</v>
-      </c>
-      <c r="F16" s="1">
+      <c r="B21">
+        <v>29440.06</v>
+      </c>
+      <c r="C21">
+        <v>1256109.1299999999</v>
+      </c>
+      <c r="D21">
+        <v>9813.35</v>
+      </c>
+      <c r="E21">
+        <v>510</v>
+      </c>
+      <c r="F21">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="G21" s="1">
+        <f t="shared" si="1"/>
+        <v>29.440060000000003</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="0"/>
+        <v>1256.1091299999998</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="0"/>
+        <v>9.8133499999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>128</v>
       </c>
-      <c r="B17" s="1">
-        <v>42678.09</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1820931.88</v>
-      </c>
-      <c r="D17" s="1">
-        <v>14226.03</v>
-      </c>
-      <c r="E17" s="1">
-        <v>63</v>
-      </c>
-      <c r="F17" s="1">
+      <c r="B22">
+        <v>27922.58</v>
+      </c>
+      <c r="C22">
+        <v>1191363.5</v>
+      </c>
+      <c r="D22">
+        <v>9307.5300000000007</v>
+      </c>
+      <c r="E22">
+        <v>1023</v>
+      </c>
+      <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="G22" s="1">
+        <f t="shared" si="1"/>
+        <v>27.922580000000004</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="0"/>
+        <v>1191.3634999999999</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="0"/>
+        <v>9.3075299999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>128</v>
       </c>
-      <c r="B18" s="1">
-        <v>42707.57</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1822189.88</v>
-      </c>
-      <c r="D18" s="1">
-        <v>14235.86</v>
-      </c>
-      <c r="E18" s="1">
-        <v>63</v>
-      </c>
-      <c r="F18" s="1">
+      <c r="B23">
+        <v>28027.34</v>
+      </c>
+      <c r="C23">
+        <v>1195833</v>
+      </c>
+      <c r="D23">
+        <v>9342.4500000000007</v>
+      </c>
+      <c r="E23">
+        <v>2046</v>
+      </c>
+      <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="G23" s="1">
+        <f t="shared" si="1"/>
+        <v>28.027339999999999</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="0"/>
+        <v>1195.8330000000001</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="0"/>
+        <v>9.3424500000000013</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>128</v>
       </c>
-      <c r="B19" s="1">
-        <v>42732.14</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1823238.13</v>
-      </c>
-      <c r="D19" s="1">
-        <v>14244.05</v>
-      </c>
-      <c r="E19" s="1">
-        <v>63</v>
-      </c>
-      <c r="F19" s="1">
+      <c r="B24">
+        <v>28049.11</v>
+      </c>
+      <c r="C24">
+        <v>1196762.1299999999</v>
+      </c>
+      <c r="D24">
+        <v>9349.7000000000007</v>
+      </c>
+      <c r="E24">
+        <v>4095</v>
+      </c>
+      <c r="F24">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>128</v>
-      </c>
-      <c r="B20" s="1">
-        <v>40444.43</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1725628.88</v>
-      </c>
-      <c r="D20" s="1">
-        <v>13481.48</v>
-      </c>
-      <c r="E20" s="1">
-        <v>63</v>
-      </c>
-      <c r="F20" s="1">
+      <c r="G24" s="1">
+        <f t="shared" si="1"/>
+        <v>28.049109999999999</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="0"/>
+        <v>1196.7621299999998</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="0"/>
+        <v>9.3497000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0.1</v>
+      </c>
+      <c r="B25">
+        <v>124735.34</v>
+      </c>
+      <c r="C25">
+        <v>5197.3100000000004</v>
+      </c>
+      <c r="D25">
+        <v>41578.449999999997</v>
+      </c>
+      <c r="E25">
+        <v>8190</v>
+      </c>
+      <c r="F25">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>128</v>
-      </c>
-      <c r="B21" s="1">
-        <v>36882.19</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1573640.13</v>
-      </c>
-      <c r="D21" s="1">
-        <v>12294.06</v>
-      </c>
-      <c r="E21" s="1">
-        <v>63</v>
-      </c>
-      <c r="F21" s="1">
+      <c r="G25" s="1">
+        <f t="shared" si="1"/>
+        <v>124.73533999999999</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="0"/>
+        <v>5.1973100000000008</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="0"/>
+        <v>41.578449999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0.1</v>
+      </c>
+      <c r="B26">
+        <v>130149.83</v>
+      </c>
+      <c r="C26">
+        <v>5422.91</v>
+      </c>
+      <c r="D26">
+        <v>43383.28</v>
+      </c>
+      <c r="E26">
+        <v>16383</v>
+      </c>
+      <c r="F26">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="G26" s="1">
+        <f t="shared" si="1"/>
+        <v>130.14983000000001</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="0"/>
+        <v>5.4229099999999999</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="0"/>
+        <v>43.383279999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>0.1</v>
       </c>
-      <c r="B22" s="1">
-        <v>69675.61</v>
-      </c>
-      <c r="C22" s="1">
-        <v>2903.15</v>
-      </c>
-      <c r="D22" s="1">
-        <v>23225.200000000001</v>
-      </c>
-      <c r="E22" s="1">
-        <v>63</v>
-      </c>
-      <c r="F22" s="1">
+      <c r="B27">
+        <v>131837.28</v>
+      </c>
+      <c r="C27">
+        <v>5493.22</v>
+      </c>
+      <c r="D27">
+        <v>43945.760000000002</v>
+      </c>
+      <c r="E27">
+        <v>32766</v>
+      </c>
+      <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="G27" s="1">
+        <f t="shared" si="1"/>
+        <v>131.83727999999999</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="0"/>
+        <v>5.49322</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="0"/>
+        <v>43.94576</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>0.1</v>
       </c>
-      <c r="B23" s="1">
-        <v>71228.429999999993</v>
-      </c>
-      <c r="C23" s="1">
-        <v>2967.85</v>
-      </c>
-      <c r="D23" s="1">
-        <v>23742.81</v>
-      </c>
-      <c r="E23" s="1">
-        <v>63</v>
-      </c>
-      <c r="F23" s="1">
+      <c r="B28">
+        <v>128540.35</v>
+      </c>
+      <c r="C28">
+        <v>5355.85</v>
+      </c>
+      <c r="D28">
+        <v>42846.79</v>
+      </c>
+      <c r="E28">
+        <v>65535</v>
+      </c>
+      <c r="F28">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="G28" s="1">
+        <f t="shared" si="1"/>
+        <v>128.54035000000002</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="0"/>
+        <v>5.3558500000000002</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="0"/>
+        <v>42.846789999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>0.1</v>
       </c>
-      <c r="B24" s="1">
-        <v>71680.52</v>
-      </c>
-      <c r="C24" s="1">
-        <v>2986.69</v>
-      </c>
-      <c r="D24" s="1">
-        <v>23893.51</v>
-      </c>
-      <c r="E24" s="1">
-        <v>63</v>
-      </c>
-      <c r="F24" s="1">
+      <c r="B29">
+        <v>127767.03999999999</v>
+      </c>
+      <c r="C29">
+        <v>5323.63</v>
+      </c>
+      <c r="D29">
+        <v>42589.01</v>
+      </c>
+      <c r="E29">
+        <v>131070</v>
+      </c>
+      <c r="F29">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="G29" s="1">
+        <f t="shared" si="1"/>
+        <v>127.76703999999999</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" ref="H29:H35" si="2">C29/1000</f>
+        <v>5.3236300000000005</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" ref="I29:I35" si="3">D29/1000</f>
+        <v>42.589010000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>0.1</v>
       </c>
-      <c r="B25" s="1">
-        <v>71665.78</v>
-      </c>
-      <c r="C25" s="1">
-        <v>2986.07</v>
-      </c>
-      <c r="D25" s="1">
-        <v>23888.59</v>
-      </c>
-      <c r="E25" s="1">
-        <v>63</v>
-      </c>
-      <c r="F25" s="1">
+      <c r="B30">
+        <v>115709.92</v>
+      </c>
+      <c r="C30">
+        <v>4821.25</v>
+      </c>
+      <c r="D30">
+        <v>38569.97</v>
+      </c>
+      <c r="E30">
+        <v>262143</v>
+      </c>
+      <c r="F30">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="G30" s="1">
+        <f t="shared" si="1"/>
+        <v>115.70992</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="2"/>
+        <v>4.82125</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="3"/>
+        <v>38.569969999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>0.1</v>
       </c>
-      <c r="B26" s="1">
-        <v>72225.98</v>
-      </c>
-      <c r="C26" s="1">
-        <v>3009.42</v>
-      </c>
-      <c r="D26" s="1">
-        <v>24075.32</v>
-      </c>
-      <c r="E26" s="1">
-        <v>63</v>
-      </c>
-      <c r="F26" s="1">
+      <c r="B31">
+        <v>122368.35</v>
+      </c>
+      <c r="C31">
+        <v>5098.68</v>
+      </c>
+      <c r="D31">
+        <v>40789.449999999997</v>
+      </c>
+      <c r="E31">
+        <v>524286</v>
+      </c>
+      <c r="F31">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="G31" s="1">
+        <f>B31/1000</f>
+        <v>122.36835000000001</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="2"/>
+        <v>5.0986799999999999</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="3"/>
+        <v>40.789449999999995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>0.1</v>
       </c>
-      <c r="B27" s="1">
-        <v>73282.48</v>
-      </c>
-      <c r="C27" s="1">
-        <v>3053.44</v>
-      </c>
-      <c r="D27" s="1">
-        <v>24427.49</v>
-      </c>
-      <c r="E27" s="1">
-        <v>63</v>
-      </c>
-      <c r="F27" s="1">
+      <c r="B32">
+        <v>106954.66</v>
+      </c>
+      <c r="C32">
+        <v>4456.4399999999996</v>
+      </c>
+      <c r="D32">
+        <v>35651.550000000003</v>
+      </c>
+      <c r="E32">
+        <v>1048575</v>
+      </c>
+      <c r="F32">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="G32" s="1">
+        <f t="shared" ref="G32:G35" si="4">B32/1000</f>
+        <v>106.95466</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="2"/>
+        <v>4.4564399999999997</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="3"/>
+        <v>35.65155</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>0.1</v>
       </c>
-      <c r="B28" s="1">
-        <v>73474.649999999994</v>
-      </c>
-      <c r="C28" s="1">
-        <v>3061.44</v>
-      </c>
-      <c r="D28" s="1">
-        <v>24491.55</v>
-      </c>
-      <c r="E28" s="1">
-        <v>63</v>
-      </c>
-      <c r="F28" s="1">
+      <c r="B33">
+        <v>88919.16</v>
+      </c>
+      <c r="C33">
+        <v>3704.97</v>
+      </c>
+      <c r="D33">
+        <v>29639.72</v>
+      </c>
+      <c r="E33">
+        <v>2097150</v>
+      </c>
+      <c r="F33">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="G33" s="1">
+        <f t="shared" si="4"/>
+        <v>88.919160000000005</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="2"/>
+        <v>3.7049699999999999</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="3"/>
+        <v>29.639720000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>0.1</v>
       </c>
-      <c r="B29" s="1">
-        <v>73479.42</v>
-      </c>
-      <c r="C29" s="1">
-        <v>3061.64</v>
-      </c>
-      <c r="D29" s="1">
-        <v>24493.14</v>
-      </c>
-      <c r="E29" s="1">
-        <v>63</v>
-      </c>
-      <c r="F29" s="1">
+      <c r="B34">
+        <v>88919.23</v>
+      </c>
+      <c r="C34">
+        <v>3704.97</v>
+      </c>
+      <c r="D34">
+        <v>29639.74</v>
+      </c>
+      <c r="E34">
+        <v>4194303</v>
+      </c>
+      <c r="F34">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="G34" s="1">
+        <f t="shared" si="4"/>
+        <v>88.919229999999999</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="2"/>
+        <v>3.7049699999999999</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" si="3"/>
+        <v>29.639740000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>0.1</v>
       </c>
-      <c r="B30" s="1">
-        <v>73809.100000000006</v>
-      </c>
-      <c r="C30" s="1">
-        <v>3075.38</v>
-      </c>
-      <c r="D30" s="1">
-        <v>24603.03</v>
-      </c>
-      <c r="E30" s="1">
-        <v>63</v>
-      </c>
-      <c r="F30" s="1">
+      <c r="B35">
+        <v>89338.68</v>
+      </c>
+      <c r="C35">
+        <v>3722.44</v>
+      </c>
+      <c r="D35">
+        <v>29779.56</v>
+      </c>
+      <c r="E35">
+        <v>6291456</v>
+      </c>
+      <c r="F35">
         <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" si="4"/>
+        <v>89.338679999999997</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" si="2"/>
+        <v>3.7224400000000002</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" si="3"/>
+        <v>29.77956</v>
       </c>
     </row>
   </sheetData>
@@ -21000,7 +23068,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="F35" sqref="F35:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21012,201 +23080,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1"/>
-      <c r="E1"/>
-      <c r="F1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>128</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2"/>
-      <c r="F2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>-10241024</v>
       </c>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>1073741824</v>
       </c>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>1073741824</v>
       </c>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F7"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>0</v>
       </c>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>1</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>83.50124000000001</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>27.833749999999998</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>27833.75</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>786264</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>0</v>
       </c>
       <c r="G13" s="3">
@@ -21219,22 +23256,22 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>2</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>68.970089999999999</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>45.980059999999995</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>22990.03</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>393216</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>0</v>
       </c>
       <c r="G14" s="3">
@@ -21247,22 +23284,22 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>4</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>77.997389999999996</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>103.99652</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>25999.13</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>196566</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>0</v>
       </c>
       <c r="G15" s="3">
@@ -21275,22 +23312,22 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>8</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>82.083839999999995</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>218.89025000000001</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>27361.279999999999</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>98304</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <v>0</v>
       </c>
       <c r="G16" s="3">
@@ -21303,22 +23340,22 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>82.853279999999998</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>441.88415999999995</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>27617.759999999998</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>48600</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>0</v>
       </c>
       <c r="G17" s="3">
@@ -21331,22 +23368,22 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>32</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>82.757229999999993</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>882.74374999999998</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>27585.74</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>24576</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <v>0</v>
       </c>
       <c r="G18" s="3">
@@ -21359,22 +23396,22 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>64</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>49.015529999999998</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>1045.6646899999998</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>16338.51</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <v>12150</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <v>0</v>
       </c>
       <c r="G19" s="3">
@@ -21387,22 +23424,22 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>128</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>27.160169999999997</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>1158.83375</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>9053.39</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <v>6144</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <v>0</v>
       </c>
       <c r="G20" s="3">
@@ -21415,22 +23452,22 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>256</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>14.42417</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>1230.8623799999998</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>4808.0600000000004</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <v>2904</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <v>0</v>
       </c>
       <c r="G21" s="3">
@@ -21443,22 +23480,22 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>512</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>7.6277799999999996</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>1301.8071299999999</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <v>2542.59</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="1">
         <v>1536</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="1">
         <v>0</v>
       </c>
       <c r="G22" s="3">
@@ -21471,22 +23508,22 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>1024</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>3.3893299999999997</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>1156.8916299999999</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <v>1129.78</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="1">
         <v>726</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="1">
         <v>0</v>
       </c>
       <c r="G23" s="3">
@@ -21499,22 +23536,22 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>2048</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>1.9464999999999999</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>1328.8078799999998</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
         <v>648.83000000000004</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="1">
         <v>384</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="1">
         <v>0</v>
       </c>
       <c r="G24" s="3">
@@ -21527,22 +23564,22 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>4096</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>0.97509000000000001</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>1331.317</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <v>325.02999999999997</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="1">
         <v>150</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="1">
         <v>0</v>
       </c>
       <c r="G25" s="3">
@@ -21555,22 +23592,22 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>8192</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <v>0.56076999999999999</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>1531.2705000000001</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <v>186.92</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="1">
         <v>96</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="1">
         <v>0</v>
       </c>
       <c r="G26" s="3">
@@ -21583,22 +23620,22 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>16384</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <v>0.26971000000000001</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>1472.961</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="1">
         <v>89.9</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="1">
         <v>24</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="1">
         <v>0</v>
       </c>
       <c r="G27" s="3">
@@ -21611,22 +23648,22 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="1">
         <v>32768</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1">
         <v>0.13453999999999999</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>1469.5443799999998</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="1">
         <v>44.85</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="1">
         <v>24</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="1">
         <v>0</v>
       </c>
       <c r="G28" s="3">
@@ -21639,22 +23676,22 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>65536</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="1">
         <v>6.3640000000000002E-2</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>1390.26</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
         <v>21.21</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="1">
         <v>6</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="1">
         <v>0</v>
       </c>
       <c r="G29" s="3">
@@ -21667,22 +23704,22 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="1">
         <v>131072</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="1">
         <v>3.5229999999999997E-2</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>1539.039</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="1">
         <v>11.74</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="1">
         <v>6</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="1">
         <v>0</v>
       </c>
       <c r="G30" s="3">

--- a/HW/HW2/report/fig/wes.xlsx
+++ b/HW/HW2/report/fig/wes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12216" tabRatio="799" firstSheet="21" activeTab="22"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12216" tabRatio="799" firstSheet="20" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet name="TriArea" sheetId="1" r:id="rId1"/>
@@ -36,11 +36,12 @@
     <sheet name="error_trend" sheetId="30" r:id="rId22"/>
     <sheet name="error_trend (2)" sheetId="31" r:id="rId23"/>
     <sheet name="basic_arithmetic" sheetId="27" r:id="rId24"/>
-    <sheet name="comparison_chart" sheetId="29" r:id="rId25"/>
-    <sheet name="comparison" sheetId="28" r:id="rId26"/>
+    <sheet name="comparison" sheetId="28" r:id="rId25"/>
+    <sheet name="comparison_chart2" sheetId="32" r:id="rId26"/>
+    <sheet name="comparison_chart1" sheetId="33" r:id="rId27"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId27"/>
+    <externalReference r:id="rId28"/>
   </externalReferences>
   <calcPr calcId="171027"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="44">
   <si>
     <t>wesBench.exe</t>
   </si>
@@ -159,36 +160,6 @@
     <t>128)</t>
   </si>
   <si>
-    <t>cos max</t>
-  </si>
-  <si>
-    <t>log ave</t>
-  </si>
-  <si>
-    <t>log max</t>
-  </si>
-  <si>
-    <t>power ave</t>
-  </si>
-  <si>
-    <t>power max</t>
-  </si>
-  <si>
-    <t>sqrt ave</t>
-  </si>
-  <si>
-    <t>sqrt max</t>
-  </si>
-  <si>
-    <t>Sin ave</t>
-  </si>
-  <si>
-    <t>sin max</t>
-  </si>
-  <si>
-    <t>cos ave</t>
-  </si>
-  <si>
     <t>Cos</t>
   </si>
   <si>
@@ -205,6 +176,15 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>Pwr2</t>
   </si>
 </sst>
 </file>
@@ -4794,7 +4774,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="2300" b="1" baseline="0"/>
-              <a:t> average relative error and the maximum error among the native arithmetic functions</a:t>
+              <a:t> average relative error among the native arithmetic functions</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="2300" b="1"/>
           </a:p>
@@ -4839,6 +4819,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Average Relative Error</c:v>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -4851,84 +4834,54 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>[1]Sheet1!$A$1:$J$1</c:f>
+              <c:f>comparison!$A$6:$E$6</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Sin ave</c:v>
+                  <c:v>Sin</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>sin max</c:v>
+                  <c:v>Cos</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cos ave</c:v>
+                  <c:v>Log2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cos max</c:v>
+                  <c:v>Pwr2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>log ave</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>log max</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>power ave</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>power max</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>sqrt ave</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>sqrt max</c:v>
+                  <c:v>Sqrt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Sheet1!$A$2:$J$2</c:f>
+              <c:f>comparison!$A$7:$E$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.9867895696959701E-5</c:v>
+                  <c:v>1.03800076313387E-7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0525275785327498E-5</c:v>
+                  <c:v>1.27884124312726E-7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0529819657146798E-5</c:v>
+                  <c:v>3.0058063482547001E-8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0749897273141398E-5</c:v>
+                  <c:v>3.7156426918772802E-8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.0082958649441396E-10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.76773240843865E-7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.4185061402434702E-9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.7179425917629506E-8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.9131379572186904E-9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.18289118240974E-7</c:v>
+                  <c:v>1.03683521647876E-8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E258-4B61-B026-148AA1FD0BF6}"/>
+              <c16:uniqueId val="{00000000-3ADC-4F75-A56A-73F81FC0A500}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5018,7 +4971,318 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="470265888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2300" b="1"/>
+              <a:t>The</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2300" b="1" baseline="0"/>
+              <a:t> maximum relative error among the native arithmetic functions</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2300" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Maximum Relative Error</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>comparison!$A$6:$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Sin</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Cos</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Log2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Pwr2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sqrt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>comparison!$A$10:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.48588711345751E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3864568463823597E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5552805785239097E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3604144452699001E-7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6855939198604501E-7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-28AD-4A28-96F0-B537AC070BF8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="470265888"/>
+        <c:axId val="470266544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="470265888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="high"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="470266544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="470266544"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -16220,6 +16484,46 @@
 </file>
 
 <file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -18644,6 +18948,509 @@
 </file>
 
 <file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -23314,7 +24121,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="65" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -23327,6 +24134,18 @@
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="65" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="65" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -23551,6 +24370,33 @@
 </file>
 
 <file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8651631" cy="6271846"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -27208,22 +28054,22 @@
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D35" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E35" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F35" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G35" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.3">
@@ -56630,76 +57476,86 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A6:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>1.03800076313387E-7</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1.27884124312726E-7</v>
+      </c>
+      <c r="C7" s="7">
+        <v>3.0058063482547001E-8</v>
+      </c>
+      <c r="D7" s="7">
+        <v>3.7156426918772802E-8</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1.03683521647876E-8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" t="s">
         <v>42</v>
       </c>
-      <c r="B1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
-        <v>1.9867895696959701E-5</v>
-      </c>
-      <c r="B2" s="7">
-        <v>6.0525275785327498E-5</v>
-      </c>
-      <c r="C2" s="7">
-        <v>2.0529819657146798E-5</v>
-      </c>
-      <c r="D2" s="7">
-        <v>6.0749897273141398E-5</v>
-      </c>
-      <c r="E2" s="7">
-        <v>9.0082958649441396E-10</v>
-      </c>
-      <c r="F2" s="7">
-        <v>3.76773240843865E-7</v>
-      </c>
-      <c r="G2" s="7">
-        <v>2.4185061402434702E-9</v>
-      </c>
-      <c r="H2" s="7">
-        <v>6.7179425917629506E-8</v>
-      </c>
-      <c r="I2" s="7">
-        <v>3.9131379572186904E-9</v>
-      </c>
-      <c r="J2" s="7">
-        <v>1.18289118240974E-7</v>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>6.48588711345751E-2</v>
+      </c>
+      <c r="B10" s="7">
+        <v>4.3864568463823597E-2</v>
+      </c>
+      <c r="C10" s="7">
+        <v>7.5552805785239097E-2</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1.3604144452699001E-7</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1.6855939198604501E-7</v>
       </c>
     </row>
   </sheetData>

--- a/HW/HW2/report/fig/wes.xlsx
+++ b/HW/HW2/report/fig/wes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="799" firstSheet="20" activeTab="26"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="799" firstSheet="20" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="TriArea" sheetId="1" r:id="rId1"/>
@@ -2279,7 +2279,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10384007205683736"/>
+          <c:y val="2.8253556762078833E-2"/>
+          <c:w val="0.87121306489652384"/>
+          <c:h val="0.94147477527855095"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -2290,7 +2300,7 @@
             <c:v>POW2</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -2537,7 +2547,7 @@
             <c:v>Sqrt</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -2784,9 +2794,9 @@
             <c:v>Log2</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3041,7 +3051,7 @@
           <c:orientation val="minMax"/>
           <c:max val="100"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3061,39 +3071,6 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="508061928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
@@ -3141,16 +3118,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -3174,9 +3148,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.91313510712604362"/>
-          <c:y val="0.44874379887516369"/>
-          <c:w val="7.8057305033004759E-2"/>
+          <c:x val="0.39411254909489674"/>
+          <c:y val="7.5393297296541414E-2"/>
+          <c:w val="0.22760614085509309"/>
           <c:h val="0.21793296582856148"/>
         </c:manualLayout>
       </c:layout>
@@ -3193,16 +3167,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -3257,7 +3228,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11566706314705374"/>
+          <c:y val="2.5736002770056252E-2"/>
+          <c:w val="0.863813893499357"/>
+          <c:h val="0.94852799445988745"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -3268,9 +3249,9 @@
             <c:v>POW2</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3515,7 +3496,7 @@
             <c:v>Log2</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -3762,7 +3743,7 @@
             <c:v>Cos</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -4009,7 +3990,7 @@
             <c:v>Sin</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
@@ -4531,7 +4512,7 @@
           <c:orientation val="minMax"/>
           <c:max val="100"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -4551,39 +4532,6 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="508061928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
@@ -4632,16 +4580,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -4665,10 +4610,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.91313510712604362"/>
-          <c:y val="0.44874379887516369"/>
-          <c:w val="7.8057305033004759E-2"/>
-          <c:h val="0.13668320299956346"/>
+          <c:x val="0.39997721093999561"/>
+          <c:y val="6.1266518915502E-2"/>
+          <c:w val="0.16162869509773148"/>
+          <c:h val="0.19319028897604371"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4684,16 +4629,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -24006,7 +23948,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -24030,7 +23972,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
